--- a/assets/workshop-data/Expenses-Budget2.xlsx
+++ b/assets/workshop-data/Expenses-Budget2.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Expenses" sheetId="2" r:id="rId1"/>
     <sheet name="Spending Summary" sheetId="1" r:id="rId2"/>
     <sheet name="Funding+Budget" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Categories">'Spending Summary'!$A$10:$A$27</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="1013">
   <si>
     <t>Category</t>
   </si>
@@ -2582,9 +2583,6 @@
     <t>Shoppers - Household</t>
   </si>
   <si>
-    <t>200 fee; 150 deposit; received 155.32 from 7 players</t>
-  </si>
-  <si>
     <t>ATM withdrawal fee</t>
   </si>
   <si>
@@ -2822,9 +2820,6 @@
     <t>Rachel off campus search fee</t>
   </si>
   <si>
-    <t>VISA TO APR 4 $3.66</t>
-  </si>
-  <si>
     <t>Paid on Apr 2, 40 from shannon</t>
   </si>
   <si>
@@ -2834,9 +2829,6 @@
     <t>GST CANADA</t>
   </si>
   <si>
-    <t>DEBIT TO APR 5 GST $70</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subway </t>
   </si>
   <si>
@@ -2850,6 +2842,258 @@
   </si>
   <si>
     <t>56 from Rachel</t>
+  </si>
+  <si>
+    <t>METRO #152 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>TIM HORTONS 2802 QTH KINGSTON ON</t>
+  </si>
+  <si>
+    <t>PAYPAL *MEDICALVARI 4029357733 ON</t>
+  </si>
+  <si>
+    <t>DOMINOS PIZZA 10310 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>MCDONALD'S #16573 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>HARPER'S KINGSTON ON</t>
+  </si>
+  <si>
+    <t>BROWN'S FINE FOODS #31 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>FRESHII - PRINCESS ST KINGSTON ON</t>
+  </si>
+  <si>
+    <t>TIR NAN OG KINGSTON KINGSTON ON</t>
+  </si>
+  <si>
+    <t>DRUGSMART PHARMACY 101 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>COPPER PENNY RESTAURAN KINGSTON ON</t>
+  </si>
+  <si>
+    <t>WINE RACK 287 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>UBER BV 800-592-8996</t>
+  </si>
+  <si>
+    <t>UBER TRIP SUGDM HELP.UBERhelp.uber.com</t>
+  </si>
+  <si>
+    <t>UBER TRIP WWNL2 HELP.UBERhelp.uber.com</t>
+  </si>
+  <si>
+    <t>OLD FARM KINGSTON ON</t>
+  </si>
+  <si>
+    <t>MORRISON-KINGS GEN-23771 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>STAPLES STORE #23 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>DIANNE'S FISHBAR KINGSTON ON</t>
+  </si>
+  <si>
+    <t>QUEENS ATHLETICS REC 613-533-6000 ON</t>
+  </si>
+  <si>
+    <t>HEEL BOY (KINGSTON) KINGSTON ON</t>
+  </si>
+  <si>
+    <t>STARBUCKS 04523 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>SP * SWEETPEAS INC. TORONTO ON</t>
+  </si>
+  <si>
+    <t>APL* ITUNES.COM/BILL 800-676-2775 ON</t>
+  </si>
+  <si>
+    <t>KINGSTON GUITAR SHOP KINGSTON ON</t>
+  </si>
+  <si>
+    <t>DOLLARAMA # 458 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>MCDONALD'S #4982 KINGSTON ON</t>
+  </si>
+  <si>
+    <t>QUEEN S GRAD CLUB INC KINGSTON ON</t>
+  </si>
+  <si>
+    <t>U OF T BOOKSTORE, KOFFLERTORONTO ON</t>
+  </si>
+  <si>
+    <t>BMV BOOK STORE TORONTO ON</t>
+  </si>
+  <si>
+    <t>THE BEER STORE #2303 TORONTO ON</t>
+  </si>
+  <si>
+    <t>SIMPLETAX.CA VANCOUVER BC</t>
+  </si>
+  <si>
+    <t>UBER TRIP BJCSQ HELP.UBERhelp.uber.com</t>
+  </si>
+  <si>
+    <t>SHOPPERSDRUGMART0881 TORONTO ON</t>
+  </si>
+  <si>
+    <t>#375 SPORT CHEK TORONTO ON</t>
+  </si>
+  <si>
+    <t>CAYA COOPERATIVE 416-504-7934 ON</t>
+  </si>
+  <si>
+    <t>MEGABUS CANADA ONTARIO ON</t>
+  </si>
+  <si>
+    <t>STARBUCKS 04766 TORONTO ON</t>
+  </si>
+  <si>
+    <t>GROCERY CHECKOUT KINGSTON ON</t>
+  </si>
+  <si>
+    <t>Amazon.ca AMAZON.CA ON</t>
+  </si>
+  <si>
+    <t>SHERLOCK'S ESCAPES KINGSTON ON</t>
+  </si>
+  <si>
+    <t>200 fee; 150 deposit (returned); received 155.32 from 7 players</t>
+  </si>
+  <si>
+    <t>McDonald's</t>
+  </si>
+  <si>
+    <t>Tim'</t>
+  </si>
+  <si>
+    <t>Tir Nan Og</t>
+  </si>
+  <si>
+    <t>Medical Variety Night</t>
+  </si>
+  <si>
+    <t>Old Farm Fine Foods</t>
+  </si>
+  <si>
+    <t>Dianne's Fishbar</t>
+  </si>
+  <si>
+    <t>KGH Foodcourt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heel Boy </t>
+  </si>
+  <si>
+    <t>Ted Baker Shoes</t>
+  </si>
+  <si>
+    <t>Sweet Peas Flowers</t>
+  </si>
+  <si>
+    <t>Flowers for Rachel's Birthday</t>
+  </si>
+  <si>
+    <t>Kingston Guitar Shop</t>
+  </si>
+  <si>
+    <t>Capo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dollarama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U of T Bookstore </t>
+  </si>
+  <si>
+    <t>Sweater for Rachel Birthday</t>
+  </si>
+  <si>
+    <t>BMV Bookstore</t>
+  </si>
+  <si>
+    <t>Dr. Duffin's Book</t>
+  </si>
+  <si>
+    <t>The Beer Store</t>
+  </si>
+  <si>
+    <t>Sportcheck</t>
+  </si>
+  <si>
+    <t>Gymbag</t>
+  </si>
+  <si>
+    <t>Come as you are collective Toronto</t>
+  </si>
+  <si>
+    <t>ARC gym membership</t>
+  </si>
+  <si>
+    <t>Fresii</t>
+  </si>
+  <si>
+    <t>Belgium book + war and turpentine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherlock escapes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be re-imbursed </t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA TO MAY 5 $100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery, vibrator ;) </t>
+  </si>
+  <si>
+    <t>Paid Harry for food</t>
+  </si>
+  <si>
+    <t>Sushi backstage to Charley</t>
+  </si>
+  <si>
+    <t>Gift for Anna - to Jordan Spradbrow</t>
+  </si>
+  <si>
+    <t>Shushi ordered in</t>
+  </si>
+  <si>
+    <t>Guitar from Omar</t>
+  </si>
+  <si>
+    <t>Sutures - from Jon Pipitone</t>
+  </si>
+  <si>
+    <t>Rideshare with Danielle</t>
+  </si>
+  <si>
+    <t>Cab</t>
+  </si>
+  <si>
+    <t>With Harry in Kingston</t>
+  </si>
+  <si>
+    <t>Hot dogs</t>
+  </si>
+  <si>
+    <t>DEBIT TO MAY 7 GST $200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIRM ON VISA BILL, 40 from Shannon confirmed </t>
   </si>
 </sst>
 </file>
@@ -2863,7 +3107,7 @@
     <numFmt numFmtId="165" formatCode="mmm\ yy"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3004,6 +3248,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF489802"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3389,7 +3648,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3693,6 +3952,12 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4094,11 +4359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1440"/>
+  <dimension ref="A1:J1506"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1357" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1357" sqref="G1357"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1434" sqref="E1434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4110,7 +4375,7 @@
     <col min="5" max="5" width="11.83203125" style="45" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="52" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="24" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="24" customWidth="1"/>
     <col min="9" max="9" width="32.33203125" style="24" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="24"/>
   </cols>
@@ -26223,27 +26488,27 @@
       </c>
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1070" s="118">
-        <v>2017</v>
-      </c>
-      <c r="B1070" s="118">
+      <c r="A1070" s="87">
+        <v>2017</v>
+      </c>
+      <c r="B1070" s="87">
         <v>11</v>
       </c>
-      <c r="C1070" s="119">
+      <c r="C1070" s="88">
         <v>14</v>
       </c>
-      <c r="D1070" s="120" t="s">
+      <c r="D1070" s="89" t="s">
         <v>760</v>
       </c>
-      <c r="E1070" s="121">
-        <f>350-155.32</f>
-        <v>194.68</v>
-      </c>
-      <c r="F1070" s="122" t="s">
+      <c r="E1070" s="90">
+        <f>350-155.32-150</f>
+        <v>44.680000000000007</v>
+      </c>
+      <c r="F1070" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="G1070" s="120" t="s">
-        <v>842</v>
+      <c r="G1070" s="89" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.2">
@@ -28594,7 +28859,7 @@
         <v>32</v>
       </c>
       <c r="G1185" s="24" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.2">
@@ -28848,7 +29113,7 @@
         <v>10</v>
       </c>
       <c r="D1198" s="24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E1198" s="45">
         <v>55.98</v>
@@ -29268,7 +29533,7 @@
         <v>17</v>
       </c>
       <c r="D1219" s="24" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E1219" s="45">
         <v>1.6</v>
@@ -29288,7 +29553,7 @@
         <v>18</v>
       </c>
       <c r="D1220" s="24" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E1220" s="45">
         <v>1.6</v>
@@ -29398,7 +29663,7 @@
         <v>32</v>
       </c>
       <c r="G1225" s="24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.2">
@@ -29592,7 +29857,7 @@
         <v>26</v>
       </c>
       <c r="D1235" s="24" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E1235" s="45">
         <v>12</v>
@@ -29681,7 +29946,7 @@
         <v>816</v>
       </c>
       <c r="G1239" s="24" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.2">
@@ -29795,7 +30060,7 @@
         <v>29</v>
       </c>
       <c r="D1245" s="24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E1245" s="45">
         <v>150</v>
@@ -29815,7 +30080,7 @@
         <v>30</v>
       </c>
       <c r="D1246" s="24" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E1246" s="45">
         <v>20.7</v>
@@ -29835,7 +30100,7 @@
         <v>30</v>
       </c>
       <c r="D1247" s="24" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E1247" s="45">
         <v>17</v>
@@ -29855,7 +30120,7 @@
         <v>30</v>
       </c>
       <c r="D1248" s="24" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E1248" s="45">
         <v>5</v>
@@ -29875,7 +30140,7 @@
         <v>30</v>
       </c>
       <c r="D1249" s="24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E1249" s="45">
         <v>3</v>
@@ -30039,7 +30304,7 @@
         <v>1</v>
       </c>
       <c r="D1257" s="24" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E1257" s="45">
         <v>24.3</v>
@@ -30048,7 +30313,7 @@
         <v>21</v>
       </c>
       <c r="G1257" s="24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.2">
@@ -30062,7 +30327,7 @@
         <v>1</v>
       </c>
       <c r="D1258" s="24" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E1258" s="45">
         <v>18.190000000000001</v>
@@ -30152,7 +30417,7 @@
         <v>8</v>
       </c>
       <c r="G1262" s="24" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1263" spans="1:7" x14ac:dyDescent="0.2">
@@ -30246,7 +30511,7 @@
         <v>4</v>
       </c>
       <c r="D1267" s="24" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E1267" s="45">
         <v>7.48</v>
@@ -30266,7 +30531,7 @@
         <v>4</v>
       </c>
       <c r="D1268" s="24" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E1268" s="45">
         <v>17.47</v>
@@ -30426,7 +30691,7 @@
         <v>7</v>
       </c>
       <c r="D1276" s="24" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E1276" s="45">
         <v>2.2000000000000002</v>
@@ -30456,7 +30721,7 @@
         <v>8</v>
       </c>
       <c r="G1277" s="24" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.2">
@@ -30550,7 +30815,7 @@
         <v>9</v>
       </c>
       <c r="D1282" s="24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E1282" s="45">
         <v>55.98</v>
@@ -30570,7 +30835,7 @@
         <v>11</v>
       </c>
       <c r="D1283" s="24" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E1283" s="45">
         <v>83.65</v>
@@ -30650,7 +30915,7 @@
         <v>12</v>
       </c>
       <c r="D1287" s="24" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E1287" s="45">
         <v>40</v>
@@ -30730,7 +30995,7 @@
         <v>14</v>
       </c>
       <c r="D1291" s="24" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E1291" s="45">
         <v>167.64</v>
@@ -30739,7 +31004,7 @@
         <v>8</v>
       </c>
       <c r="G1291" s="24" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.2">
@@ -30813,7 +31078,7 @@
         <v>17</v>
       </c>
       <c r="D1295" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E1295" s="45">
         <v>21.13</v>
@@ -30833,7 +31098,7 @@
         <v>18</v>
       </c>
       <c r="D1296" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E1296" s="45">
         <v>15.93</v>
@@ -30853,7 +31118,7 @@
         <v>19</v>
       </c>
       <c r="D1297" s="24" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E1297" s="45">
         <f>106.61+3</f>
@@ -30874,7 +31139,7 @@
         <v>19</v>
       </c>
       <c r="D1298" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E1298" s="45">
         <v>74.88</v>
@@ -30894,7 +31159,7 @@
         <v>19</v>
       </c>
       <c r="D1299" s="24" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E1299" s="45">
         <v>10.47</v>
@@ -30924,7 +31189,7 @@
         <v>8</v>
       </c>
       <c r="G1300" s="24" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1301" spans="1:7" x14ac:dyDescent="0.2">
@@ -31018,7 +31283,7 @@
         <v>22</v>
       </c>
       <c r="D1305" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E1305" s="45">
         <v>3</v>
@@ -31048,7 +31313,7 @@
         <v>8</v>
       </c>
       <c r="G1306" s="24" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="1307" spans="1:7" x14ac:dyDescent="0.2">
@@ -31082,7 +31347,7 @@
         <v>23</v>
       </c>
       <c r="D1308" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E1308" s="45">
         <v>11.81</v>
@@ -31091,7 +31356,7 @@
         <v>816</v>
       </c>
       <c r="G1308" s="24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.2">
@@ -31105,7 +31370,7 @@
         <v>23</v>
       </c>
       <c r="D1309" s="24" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E1309" s="45">
         <v>12.4</v>
@@ -31114,7 +31379,7 @@
         <v>125</v>
       </c>
       <c r="G1309" s="24" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1310" spans="1:7" x14ac:dyDescent="0.2">
@@ -31128,7 +31393,7 @@
         <v>23</v>
       </c>
       <c r="D1310" s="24" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E1310" s="45">
         <v>16.989999999999998</v>
@@ -31168,7 +31433,7 @@
         <v>24</v>
       </c>
       <c r="D1312" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E1312" s="45">
         <v>60</v>
@@ -31177,7 +31442,7 @@
         <v>816</v>
       </c>
       <c r="G1312" s="24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.2">
@@ -31191,7 +31456,7 @@
         <v>24</v>
       </c>
       <c r="D1313" s="24" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E1313" s="45">
         <v>4.99</v>
@@ -31231,7 +31496,7 @@
         <v>24</v>
       </c>
       <c r="D1315" s="24" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E1315" s="45">
         <v>45.15</v>
@@ -31240,7 +31505,7 @@
         <v>816</v>
       </c>
       <c r="G1315" s="24" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1316" spans="1:7" x14ac:dyDescent="0.2">
@@ -31254,7 +31519,7 @@
         <v>25</v>
       </c>
       <c r="D1316" s="24" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E1316" s="45">
         <v>29.38</v>
@@ -31374,7 +31639,7 @@
         <v>26</v>
       </c>
       <c r="D1322" s="24" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E1322" s="45">
         <v>35.94</v>
@@ -31394,7 +31659,7 @@
         <v>26</v>
       </c>
       <c r="D1323" s="24" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E1323" s="45">
         <v>5</v>
@@ -31414,7 +31679,7 @@
         <v>26</v>
       </c>
       <c r="D1324" s="24" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E1324" s="45">
         <v>10</v>
@@ -31454,7 +31719,7 @@
         <v>27</v>
       </c>
       <c r="D1326" s="24" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E1326" s="45">
         <f>14.95+10.75</f>
@@ -31475,7 +31740,7 @@
         <v>27</v>
       </c>
       <c r="D1327" s="24" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E1327" s="45">
         <v>8</v>
@@ -31585,7 +31850,7 @@
         <v>2</v>
       </c>
       <c r="G1332" s="24" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1333" spans="1:7" x14ac:dyDescent="0.2">
@@ -31708,7 +31973,7 @@
         <v>28</v>
       </c>
       <c r="G1338" s="24" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.2">
@@ -31722,7 +31987,7 @@
         <v>3</v>
       </c>
       <c r="D1339" s="24" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E1339" s="45">
         <v>5.09</v>
@@ -31742,7 +32007,7 @@
         <v>3</v>
       </c>
       <c r="D1340" s="24" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E1340" s="45">
         <v>3.68</v>
@@ -31762,7 +32027,7 @@
         <v>3</v>
       </c>
       <c r="D1341" s="24" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E1341" s="45">
         <v>46.38</v>
@@ -31822,7 +32087,7 @@
         <v>6</v>
       </c>
       <c r="D1344" s="24" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E1344" s="45">
         <v>30</v>
@@ -31872,7 +32137,7 @@
         <v>8</v>
       </c>
       <c r="G1346" s="24" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1347" spans="1:7" x14ac:dyDescent="0.2">
@@ -31946,7 +32211,7 @@
         <v>8</v>
       </c>
       <c r="D1350" s="24" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E1350" s="45">
         <v>27.12</v>
@@ -31955,7 +32220,7 @@
         <v>21</v>
       </c>
       <c r="G1350" s="24" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.2">
@@ -32029,7 +32294,7 @@
         <v>9</v>
       </c>
       <c r="D1354" s="24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E1354" s="45">
         <v>55.98</v>
@@ -32049,7 +32314,7 @@
         <v>10</v>
       </c>
       <c r="D1355" s="24" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E1355" s="45">
         <f>720-150</f>
@@ -32059,7 +32324,7 @@
         <v>7</v>
       </c>
       <c r="G1355" s="24" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.2">
@@ -32073,7 +32338,7 @@
         <v>10</v>
       </c>
       <c r="D1356" s="24" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E1356" s="45">
         <v>17.62</v>
@@ -32102,7 +32367,7 @@
         <v>11</v>
       </c>
       <c r="G1357" s="24" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.2">
@@ -32116,7 +32381,7 @@
         <v>11</v>
       </c>
       <c r="D1358" s="24" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E1358" s="45">
         <v>70</v>
@@ -32216,7 +32481,7 @@
         <v>13</v>
       </c>
       <c r="D1363" s="24" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E1363" s="45">
         <v>293.8</v>
@@ -32336,7 +32601,7 @@
         <v>15</v>
       </c>
       <c r="D1369" s="24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E1369" s="45">
         <v>15.53</v>
@@ -32366,7 +32631,7 @@
         <v>13</v>
       </c>
       <c r="G1370" s="24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1371" spans="1:7" x14ac:dyDescent="0.2">
@@ -32380,7 +32645,7 @@
         <v>13</v>
       </c>
       <c r="D1371" s="24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E1371" s="45">
         <v>14.28</v>
@@ -32400,7 +32665,7 @@
         <v>14</v>
       </c>
       <c r="D1372" s="24" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E1372" s="45">
         <v>16.22</v>
@@ -32490,7 +32755,7 @@
         <v>6</v>
       </c>
       <c r="G1376" s="24" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1377" spans="1:6" x14ac:dyDescent="0.2">
@@ -32504,7 +32769,7 @@
         <v>18</v>
       </c>
       <c r="D1377" s="24" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E1377" s="45">
         <v>24.28</v>
@@ -32524,7 +32789,7 @@
         <v>19</v>
       </c>
       <c r="D1378" s="24" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E1378" s="45">
         <v>6.27</v>
@@ -32624,7 +32889,7 @@
         <v>20</v>
       </c>
       <c r="D1383" s="24" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E1383" s="45">
         <v>33.229999999999997</v>
@@ -32744,7 +33009,7 @@
         <v>24</v>
       </c>
       <c r="D1389" s="24" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E1389" s="45">
         <v>4.99</v>
@@ -32764,7 +33029,7 @@
         <v>24</v>
       </c>
       <c r="D1390" s="24" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E1390" s="45">
         <v>20</v>
@@ -32804,7 +33069,7 @@
         <v>25</v>
       </c>
       <c r="D1392" s="24" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E1392" s="45">
         <v>26.1</v>
@@ -32824,7 +33089,7 @@
         <v>25</v>
       </c>
       <c r="D1393" s="24" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E1393" s="45">
         <v>7</v>
@@ -32904,7 +33169,7 @@
         <v>26</v>
       </c>
       <c r="D1397" s="24" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E1397" s="45">
         <v>12.15</v>
@@ -32964,7 +33229,7 @@
         <v>26</v>
       </c>
       <c r="D1400" s="24" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E1400" s="45">
         <v>124</v>
@@ -32984,7 +33249,7 @@
         <v>26</v>
       </c>
       <c r="D1401" s="89" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E1401" s="45">
         <v>40</v>
@@ -33084,7 +33349,7 @@
         <v>28</v>
       </c>
       <c r="D1406" s="24" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E1406" s="45">
         <v>22.18</v>
@@ -33124,7 +33389,7 @@
         <v>30</v>
       </c>
       <c r="D1408" s="24" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E1408" s="45">
         <v>32.32</v>
@@ -33133,7 +33398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1409" s="48">
         <v>2018</v>
       </c>
@@ -33144,7 +33409,7 @@
         <v>30</v>
       </c>
       <c r="D1409" s="24" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E1409" s="45">
         <v>4</v>
@@ -33153,7 +33418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1410" s="48">
         <v>2018</v>
       </c>
@@ -33164,16 +33429,16 @@
         <v>31</v>
       </c>
       <c r="D1410" s="24" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E1410" s="45">
         <v>110</v>
       </c>
       <c r="G1410" s="24" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:8" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1411" s="48">
         <v>2018</v>
       </c>
@@ -33184,7 +33449,7 @@
         <v>31</v>
       </c>
       <c r="D1411" s="24" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E1411" s="45">
         <v>118.64</v>
@@ -33193,7 +33458,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="1412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1412" s="48">
         <v>2018</v>
       </c>
@@ -33214,10 +33479,10 @@
         <v>2</v>
       </c>
       <c r="G1412" s="24" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:8" x14ac:dyDescent="0.2">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1413" s="48">
         <v>2018</v>
       </c>
@@ -33237,7 +33502,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="1414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1414" s="48">
         <v>2018</v>
       </c>
@@ -33248,7 +33513,7 @@
         <v>1</v>
       </c>
       <c r="D1414" s="24" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E1414" s="45">
         <v>40.22</v>
@@ -33257,7 +33522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1415" s="48">
         <v>2018</v>
       </c>
@@ -33277,7 +33542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1416" s="48">
         <v>2018</v>
       </c>
@@ -33297,7 +33562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1417" s="48">
         <v>2018</v>
       </c>
@@ -33317,7 +33582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1418" s="48">
         <v>2018</v>
       </c>
@@ -33337,7 +33602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1419" s="48">
         <v>2018</v>
       </c>
@@ -33348,7 +33613,7 @@
         <v>2</v>
       </c>
       <c r="D1419" s="24" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E1419" s="45">
         <f>80-40</f>
@@ -33358,10 +33623,10 @@
         <v>11</v>
       </c>
       <c r="G1419" s="24" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:8" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1420" s="48">
         <v>2018</v>
       </c>
@@ -33381,7 +33646,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="1421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1421" s="48">
         <v>2018</v>
       </c>
@@ -33392,7 +33657,7 @@
         <v>3</v>
       </c>
       <c r="D1421" s="24" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E1421" s="45">
         <v>113.4</v>
@@ -33401,10 +33666,10 @@
         <v>11</v>
       </c>
       <c r="G1421" s="24" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:8" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1422" s="48">
         <v>2018</v>
       </c>
@@ -33424,7 +33689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1423" s="48">
         <v>2018</v>
       </c>
@@ -33435,7 +33700,7 @@
         <v>3</v>
       </c>
       <c r="D1423" s="24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E1423" s="45">
         <f>1749.96-875</f>
@@ -33445,13 +33710,10 @@
         <v>11</v>
       </c>
       <c r="G1423" s="24" t="s">
-        <v>929</v>
-      </c>
-      <c r="H1423" s="56" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="1424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1424" s="48">
         <v>2018</v>
       </c>
@@ -33469,9 +33731,6 @@
       </c>
       <c r="F1424" s="52" t="s">
         <v>8</v>
-      </c>
-      <c r="H1424" s="56" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="1425" spans="1:6" x14ac:dyDescent="0.2">
@@ -33485,7 +33744,7 @@
         <v>5</v>
       </c>
       <c r="D1425" s="24" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E1425" s="45">
         <v>70</v>
@@ -33498,75 +33757,1633 @@
       <c r="A1426" s="48">
         <v>2018</v>
       </c>
+      <c r="B1426" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1426" s="43">
+        <v>5</v>
+      </c>
+      <c r="D1426" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="E1426" s="45">
+        <v>111.89</v>
+      </c>
+      <c r="F1426" s="52" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="1427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1427" s="48">
         <v>2018</v>
       </c>
+      <c r="B1427" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1427" s="43">
+        <v>6</v>
+      </c>
+      <c r="D1427" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1427" s="45">
+        <v>1.46</v>
+      </c>
+      <c r="F1427" s="52" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="1428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1428" s="48">
         <v>2018</v>
       </c>
+      <c r="B1428" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1428" s="43">
+        <v>6</v>
+      </c>
+      <c r="D1428" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="E1428" s="45">
+        <v>15</v>
+      </c>
+      <c r="F1428" s="52" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="1429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1429" s="48">
         <v>2018</v>
       </c>
+      <c r="B1429" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1429" s="43">
+        <v>7</v>
+      </c>
+      <c r="D1429" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="E1429" s="45">
+        <v>30.8</v>
+      </c>
+      <c r="F1429" s="52" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1430" s="48">
         <v>2018</v>
       </c>
+      <c r="B1430" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1430" s="43">
+        <v>7</v>
+      </c>
+      <c r="D1430" s="24" t="s">
+        <v>971</v>
+      </c>
+      <c r="E1430" s="45">
+        <v>16.23</v>
+      </c>
+      <c r="F1430" s="52" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1431" s="48">
         <v>2018</v>
       </c>
+      <c r="B1431" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1431" s="43">
+        <v>7</v>
+      </c>
+      <c r="D1431" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E1431" s="45">
+        <v>8</v>
+      </c>
+      <c r="F1431" s="52" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1432" s="48">
         <v>2018</v>
       </c>
+      <c r="B1432" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1432" s="43">
+        <v>8</v>
+      </c>
+      <c r="D1432" s="24" t="s">
+        <v>971</v>
+      </c>
+      <c r="E1432" s="45">
+        <v>3.77</v>
+      </c>
+      <c r="F1432" s="52" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1433" s="48">
         <v>2018</v>
       </c>
+      <c r="B1433" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1433" s="43">
+        <v>9</v>
+      </c>
+      <c r="D1433" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1433" s="45">
+        <f>40.94-16</f>
+        <v>24.939999999999998</v>
+      </c>
+      <c r="F1433" s="52" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1434" s="48">
         <v>2018</v>
       </c>
+      <c r="B1434" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1434" s="43">
+        <v>9</v>
+      </c>
+      <c r="D1434" s="24" t="s">
+        <v>972</v>
+      </c>
+      <c r="E1434" s="45">
+        <v>5.51</v>
+      </c>
+      <c r="F1434" s="52" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1435" s="48">
         <v>2018</v>
       </c>
+      <c r="B1435" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1435" s="43">
+        <v>9</v>
+      </c>
+      <c r="D1435" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1435" s="45">
+        <v>2.85</v>
+      </c>
+      <c r="F1435" s="52" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="1436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1436" s="48">
         <v>2018</v>
       </c>
+      <c r="B1436" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1436" s="43">
+        <v>10</v>
+      </c>
+      <c r="D1436" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="E1436" s="45">
+        <v>1.6</v>
+      </c>
+      <c r="F1436" s="52" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="1437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1437" s="48">
         <v>2018</v>
       </c>
+      <c r="B1437" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1437" s="43">
+        <v>10</v>
+      </c>
+      <c r="D1437" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1437" s="45">
+        <v>24.02</v>
+      </c>
+      <c r="F1437" s="52" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1438" s="48">
         <v>2018</v>
       </c>
+      <c r="B1438" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1438" s="43">
+        <v>10</v>
+      </c>
+      <c r="D1438" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1438" s="45">
+        <v>12.97</v>
+      </c>
+      <c r="F1438" s="52" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="1439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1439" s="48">
         <v>2018</v>
       </c>
+      <c r="B1439" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1439" s="43">
+        <v>10</v>
+      </c>
+      <c r="D1439" s="24" t="s">
+        <v>843</v>
+      </c>
+      <c r="E1439" s="45">
+        <v>55.98</v>
+      </c>
+      <c r="F1439" s="52" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1440" s="48">
         <v>2018</v>
+      </c>
+      <c r="B1440" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1440" s="43">
+        <v>11</v>
+      </c>
+      <c r="D1440" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1440" s="45">
+        <v>3.55</v>
+      </c>
+      <c r="F1440" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1441" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1441" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1441" s="43">
+        <v>11</v>
+      </c>
+      <c r="D1441" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="E1441" s="45">
+        <v>9.89</v>
+      </c>
+      <c r="F1441" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1442" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1442" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1442" s="43">
+        <v>12</v>
+      </c>
+      <c r="D1442" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1442" s="45">
+        <v>1.46</v>
+      </c>
+      <c r="F1442" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1443" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1443" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1443" s="43">
+        <v>12</v>
+      </c>
+      <c r="D1443" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1443" s="45">
+        <v>1.05</v>
+      </c>
+      <c r="F1443" s="52" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1444" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1444" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1444" s="43">
+        <v>12</v>
+      </c>
+      <c r="D1444" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1444" s="45">
+        <v>3.15</v>
+      </c>
+      <c r="F1444" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1445" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1445" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1445" s="43">
+        <v>12</v>
+      </c>
+      <c r="D1445" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1445" s="45">
+        <v>10.7</v>
+      </c>
+      <c r="F1445" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1446" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1446" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1446" s="43">
+        <v>13</v>
+      </c>
+      <c r="D1446" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="E1446" s="45">
+        <v>18.37</v>
+      </c>
+      <c r="F1446" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1447" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1447" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1447" s="43">
+        <v>15</v>
+      </c>
+      <c r="D1447" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="E1447" s="45">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="F1447" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1448" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1448" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1448" s="43">
+        <v>15</v>
+      </c>
+      <c r="D1448" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1448" s="45">
+        <v>10.95</v>
+      </c>
+      <c r="F1448" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1449" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1449" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1449" s="43">
+        <v>15</v>
+      </c>
+      <c r="D1449" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1449" s="45">
+        <v>3</v>
+      </c>
+      <c r="F1449" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1450" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1450" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1450" s="43">
+        <v>15</v>
+      </c>
+      <c r="D1450" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1450" s="45">
+        <v>24.01</v>
+      </c>
+      <c r="F1450" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1451" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1451" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1451" s="43">
+        <v>15</v>
+      </c>
+      <c r="D1451" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1451" s="45">
+        <v>14.15</v>
+      </c>
+      <c r="F1451" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1452" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1452" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1452" s="43">
+        <v>16</v>
+      </c>
+      <c r="D1452" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1452" s="45">
+        <v>11.29</v>
+      </c>
+      <c r="F1452" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1452" s="24" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1453" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1453" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1453" s="43">
+        <v>16</v>
+      </c>
+      <c r="D1453" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1453" s="45">
+        <v>5.63</v>
+      </c>
+      <c r="F1453" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1454" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1454" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1454" s="43">
+        <v>16</v>
+      </c>
+      <c r="D1454" s="24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E1454" s="45">
+        <v>10</v>
+      </c>
+      <c r="F1454" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1455" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1455" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1455" s="43">
+        <v>16</v>
+      </c>
+      <c r="D1455" s="24" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E1455" s="45">
+        <v>15</v>
+      </c>
+      <c r="F1455" s="52" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1456" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1456" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1456" s="43">
+        <v>16</v>
+      </c>
+      <c r="D1456" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E1456" s="45">
+        <v>9</v>
+      </c>
+      <c r="F1456" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1457" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1457" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1457" s="43">
+        <v>17</v>
+      </c>
+      <c r="D1457" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1457" s="45">
+        <v>7.09</v>
+      </c>
+      <c r="F1457" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1458" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1458" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1458" s="43">
+        <v>17</v>
+      </c>
+      <c r="D1458" s="24" t="s">
+        <v>975</v>
+      </c>
+      <c r="E1458" s="45">
+        <v>30.9</v>
+      </c>
+      <c r="F1458" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1459" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1459" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1459" s="43">
+        <v>17</v>
+      </c>
+      <c r="D1459" s="24" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1459" s="45">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F1459" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1460" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1460" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1460" s="43">
+        <v>18</v>
+      </c>
+      <c r="D1460" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="E1460" s="45">
+        <v>8.1</v>
+      </c>
+      <c r="F1460" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1461" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1461" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1461" s="43">
+        <v>18</v>
+      </c>
+      <c r="D1461" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1461" s="45">
+        <v>15.22</v>
+      </c>
+      <c r="F1461" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1462" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1462" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1462" s="43">
+        <v>18</v>
+      </c>
+      <c r="D1462" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="E1462" s="45">
+        <v>5.88</v>
+      </c>
+      <c r="F1462" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1463" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1463" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1463" s="43">
+        <v>20</v>
+      </c>
+      <c r="D1463" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1463" s="45">
+        <v>5.51</v>
+      </c>
+      <c r="F1463" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1464" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1464" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1464" s="43">
+        <v>20</v>
+      </c>
+      <c r="D1464" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="E1464" s="45">
+        <v>6.7</v>
+      </c>
+      <c r="F1464" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1465" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1465" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1465" s="43">
+        <v>20</v>
+      </c>
+      <c r="D1465" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="E1465" s="45">
+        <v>124.08</v>
+      </c>
+      <c r="F1465" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1466" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1466" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1466" s="43">
+        <v>21</v>
+      </c>
+      <c r="D1466" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1466" s="45">
+        <v>4.54</v>
+      </c>
+      <c r="F1466" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1467" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1467" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1467" s="43">
+        <v>21</v>
+      </c>
+      <c r="D1467" s="24" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1467" s="45">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F1467" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1468" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1468" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1468" s="43">
+        <v>21</v>
+      </c>
+      <c r="D1468" s="24" t="s">
+        <v>978</v>
+      </c>
+      <c r="E1468" s="45">
+        <v>163.85</v>
+      </c>
+      <c r="F1468" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1468" s="24" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1469" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1469" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1469" s="43">
+        <v>21</v>
+      </c>
+      <c r="D1469" s="24" t="s">
+        <v>975</v>
+      </c>
+      <c r="E1469" s="45">
+        <v>14.95</v>
+      </c>
+      <c r="F1469" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1470" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1470" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1470" s="43">
+        <v>22</v>
+      </c>
+      <c r="D1470" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1470" s="45">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F1470" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1471" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1471" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1471" s="43">
+        <v>23</v>
+      </c>
+      <c r="D1471" s="24" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1471" s="45">
+        <v>89.27</v>
+      </c>
+      <c r="F1471" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1471" s="24" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1472" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1472" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1472" s="43">
+        <v>23</v>
+      </c>
+      <c r="D1472" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="E1472" s="45">
+        <v>6.7</v>
+      </c>
+      <c r="F1472" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1473" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1473" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1473" s="43">
+        <v>23</v>
+      </c>
+      <c r="D1473" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E1473" s="45">
+        <v>16</v>
+      </c>
+      <c r="F1473" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1474" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1474" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1474" s="43">
+        <v>23</v>
+      </c>
+      <c r="D1474" s="24" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E1474" s="45">
+        <v>50</v>
+      </c>
+      <c r="F1474" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1475" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1475" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1475" s="43">
+        <v>24</v>
+      </c>
+      <c r="D1475" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1475" s="45">
+        <v>4.99</v>
+      </c>
+      <c r="F1475" s="52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1476" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1476" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1476" s="43">
+        <v>24</v>
+      </c>
+      <c r="D1476" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="E1476" s="45">
+        <v>30</v>
+      </c>
+      <c r="F1476" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1476" s="24" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1477" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1477" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1477" s="43">
+        <v>24</v>
+      </c>
+      <c r="D1477" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="E1477" s="45">
+        <v>1.7</v>
+      </c>
+      <c r="F1477" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1478" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1478" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1478" s="43">
+        <v>25</v>
+      </c>
+      <c r="D1478" s="24" t="s">
+        <v>971</v>
+      </c>
+      <c r="E1478" s="45">
+        <v>7.11</v>
+      </c>
+      <c r="F1478" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1479" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1479" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1479" s="43">
+        <v>25</v>
+      </c>
+      <c r="D1479" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1479" s="45">
+        <v>33.54</v>
+      </c>
+      <c r="F1479" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1480" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1480" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1480" s="43">
+        <v>26</v>
+      </c>
+      <c r="D1480" s="24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E1480" s="45">
+        <v>9</v>
+      </c>
+      <c r="F1480" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1481" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1481" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1481" s="43">
+        <v>27</v>
+      </c>
+      <c r="D1481" s="24" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1481" s="45">
+        <v>79.09</v>
+      </c>
+      <c r="F1481" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1481" s="24" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1482" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1482" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1482" s="43">
+        <v>27</v>
+      </c>
+      <c r="D1482" s="24" t="s">
+        <v>987</v>
+      </c>
+      <c r="E1482" s="45">
+        <v>9.44</v>
+      </c>
+      <c r="F1482" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1482" s="24" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1483" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1483" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1483" s="43">
+        <v>27</v>
+      </c>
+      <c r="D1483" s="24" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1483" s="45">
+        <v>14.5</v>
+      </c>
+      <c r="F1483" s="52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1484" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1484" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1484" s="43">
+        <v>27</v>
+      </c>
+      <c r="D1484" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1484" s="45">
+        <v>3.66</v>
+      </c>
+      <c r="F1484" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1485" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1485" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1485" s="43">
+        <v>28</v>
+      </c>
+      <c r="D1485" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1485" s="45">
+        <v>21.47</v>
+      </c>
+      <c r="F1485" s="52" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1486" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1486" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1486" s="43">
+        <v>28</v>
+      </c>
+      <c r="D1486" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1486" s="45">
+        <v>23.97</v>
+      </c>
+      <c r="F1486" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1487" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1487" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1487" s="43">
+        <v>28</v>
+      </c>
+      <c r="D1487" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="E1487" s="45">
+        <v>11.29</v>
+      </c>
+      <c r="F1487" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1488" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1488" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1488" s="43">
+        <v>28</v>
+      </c>
+      <c r="D1488" s="24" t="s">
+        <v>990</v>
+      </c>
+      <c r="E1488" s="45">
+        <v>47.46</v>
+      </c>
+      <c r="F1488" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1488" s="24" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1489" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1489" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1489" s="43">
+        <v>29</v>
+      </c>
+      <c r="D1489" s="24" t="s">
+        <v>992</v>
+      </c>
+      <c r="E1489" s="45">
+        <v>38.42</v>
+      </c>
+      <c r="F1489" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1489" s="24" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1490" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1490" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1490" s="43">
+        <v>29</v>
+      </c>
+      <c r="D1490" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1490" s="45">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F1490" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1491" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1491" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1491" s="43">
+        <v>29</v>
+      </c>
+      <c r="D1491" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1491" s="45">
+        <v>10.96</v>
+      </c>
+      <c r="F1491" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1492" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1492" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1492" s="43">
+        <v>30</v>
+      </c>
+      <c r="D1492" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1492" s="45">
+        <v>9.07</v>
+      </c>
+      <c r="F1492" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1493" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1493" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1493" s="43">
+        <v>30</v>
+      </c>
+      <c r="D1493" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1493" s="45">
+        <v>20</v>
+      </c>
+      <c r="F1493" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1494" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1494" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1494" s="43">
+        <v>30</v>
+      </c>
+      <c r="D1494" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E1494" s="45">
+        <v>6</v>
+      </c>
+      <c r="F1494" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1494" s="24" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1495" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1495" s="48">
+        <v>4</v>
+      </c>
+      <c r="C1495" s="43">
+        <v>30</v>
+      </c>
+      <c r="D1495" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1495" s="45">
+        <v>139.83000000000001</v>
+      </c>
+      <c r="F1495" s="52" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:7" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1496" s="118">
+        <v>2018</v>
+      </c>
+      <c r="B1496" s="118">
+        <v>4</v>
+      </c>
+      <c r="C1496" s="119">
+        <v>30</v>
+      </c>
+      <c r="D1496" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1496" s="121">
+        <f>84.69-40</f>
+        <v>44.69</v>
+      </c>
+      <c r="F1496" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1496" s="120" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1497" s="87">
+        <v>2018</v>
+      </c>
+      <c r="B1497" s="87">
+        <v>4</v>
+      </c>
+      <c r="C1497" s="88">
+        <v>1</v>
+      </c>
+      <c r="D1497" s="89" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1497" s="90">
+        <v>895</v>
+      </c>
+      <c r="F1497" s="117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1498" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1498" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1498" s="43">
+        <v>1</v>
+      </c>
+      <c r="D1498" s="24" t="s">
+        <v>993</v>
+      </c>
+      <c r="E1498" s="45">
+        <v>90.4</v>
+      </c>
+      <c r="F1498" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1499" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1499" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1499" s="43">
+        <v>1</v>
+      </c>
+      <c r="D1499" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="E1499" s="45">
+        <v>25.38</v>
+      </c>
+      <c r="F1499" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1500" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1500" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1500" s="43">
+        <v>1</v>
+      </c>
+      <c r="D1500" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1500" s="45">
+        <v>1.56</v>
+      </c>
+      <c r="F1500" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1501" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1501" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1501" s="43">
+        <v>2</v>
+      </c>
+      <c r="D1501" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E1501" s="45">
+        <v>45.57</v>
+      </c>
+      <c r="F1501" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1501" s="24" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1502" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1502" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1502" s="43">
+        <v>2</v>
+      </c>
+      <c r="D1502" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1502" s="45">
+        <v>12.41</v>
+      </c>
+      <c r="F1502" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1503" s="48">
+        <v>2018</v>
+      </c>
+      <c r="B1503" s="48">
+        <v>5</v>
+      </c>
+      <c r="C1503" s="43">
+        <v>2</v>
+      </c>
+      <c r="D1503" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1503" s="45">
+        <v>1.46</v>
+      </c>
+      <c r="F1503" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:7" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1504" s="118">
+        <v>2018</v>
+      </c>
+      <c r="B1504" s="118">
+        <v>5</v>
+      </c>
+      <c r="C1504" s="119">
+        <v>2</v>
+      </c>
+      <c r="D1504" s="120" t="s">
+        <v>996</v>
+      </c>
+      <c r="E1504" s="121">
+        <v>100</v>
+      </c>
+      <c r="F1504" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1504" s="120" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1505" s="56" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1506" s="24"/>
+      <c r="B1506" s="24"/>
+      <c r="C1506" s="24"/>
+      <c r="E1506" s="24"/>
+      <c r="F1506" s="24"/>
+      <c r="H1506" s="56" t="s">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -33592,9 +35409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L39" sqref="L39"/>
+      <selection pane="topRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33611,50 +35428,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="129" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="130" t="s">
         <v>705</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="130" t="s">
         <v>704</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="126"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="132"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="133" t="s">
         <v>708</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="8"/>
       <c r="H3" s="33" t="s">
         <v>297</v>
@@ -33666,53 +35483,53 @@
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="133" t="s">
         <v>706</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="139" t="s">
         <v>707</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="127" t="s">
-        <v>903</v>
-      </c>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="129"/>
+      <c r="H5" s="133" t="s">
+        <v>902</v>
+      </c>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="138"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="144"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="136" t="s">
         <v>476</v>
       </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="132"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="70" t="s">
@@ -35464,7 +37281,7 @@
       </c>
       <c r="J38" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A38, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>895</v>
+        <v>1790</v>
       </c>
       <c r="K38" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A38, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -35480,7 +37297,7 @@
       </c>
       <c r="N38" s="63">
         <f t="shared" si="11"/>
-        <v>8055</v>
+        <v>8950</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -35578,7 +37395,7 @@
       </c>
       <c r="J40" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A40, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>0</v>
+        <v>44.69</v>
       </c>
       <c r="K40" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A40, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -35594,7 +37411,7 @@
       </c>
       <c r="N40" s="63">
         <f t="shared" si="11"/>
-        <v>312.32000000000011</v>
+        <v>357.0100000000001</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -35635,7 +37452,7 @@
       </c>
       <c r="J41" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A41, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>0</v>
+        <v>273.95</v>
       </c>
       <c r="K41" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A41, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -35651,7 +37468,7 @@
       </c>
       <c r="N41" s="63">
         <f t="shared" si="11"/>
-        <v>1344.5</v>
+        <v>1618.45</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -35692,11 +37509,11 @@
       </c>
       <c r="J42" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A42, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>100.77</v>
+        <v>581.94999999999993</v>
       </c>
       <c r="K42" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A42, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
-        <v>0</v>
+        <v>39.349999999999994</v>
       </c>
       <c r="L42" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A42, 'Detailed Expenses'!$B:$B, L$35, 'Detailed Expenses'!$A:$A, L$34)</f>
@@ -35708,7 +37525,7 @@
       </c>
       <c r="N42" s="63">
         <f t="shared" si="11"/>
-        <v>3588.25</v>
+        <v>4108.78</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -35749,11 +37566,11 @@
       </c>
       <c r="J43" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A43, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>0</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="K43" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A43, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L43" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A43, 'Detailed Expenses'!$B:$B, L$35, 'Detailed Expenses'!$A:$A, L$34)</f>
@@ -35765,7 +37582,7 @@
       </c>
       <c r="N43" s="63">
         <f t="shared" si="11"/>
-        <v>166.43</v>
+        <v>185.4</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -35806,7 +37623,7 @@
       </c>
       <c r="J44" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A44, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>0</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="K44" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A44, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -35822,7 +37639,7 @@
       </c>
       <c r="N44" s="63">
         <f t="shared" si="11"/>
-        <v>549.24</v>
+        <v>584.58000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -35863,7 +37680,7 @@
       </c>
       <c r="J45" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A45, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>0</v>
+        <v>14.879999999999999</v>
       </c>
       <c r="K45" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A45, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -35879,7 +37696,7 @@
       </c>
       <c r="N45" s="63">
         <f t="shared" si="11"/>
-        <v>468.52</v>
+        <v>483.4</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -35920,7 +37737,7 @@
       </c>
       <c r="J46" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A46, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="K46" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A46, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -35936,7 +37753,7 @@
       </c>
       <c r="N46" s="63">
         <f t="shared" si="11"/>
-        <v>100.90999999999998</v>
+        <v>105.89999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -35977,7 +37794,7 @@
       </c>
       <c r="J47" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A47, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>0</v>
+        <v>163.85</v>
       </c>
       <c r="K47" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A47, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -35993,7 +37810,7 @@
       </c>
       <c r="N47" s="63">
         <f t="shared" si="11"/>
-        <v>780.15</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -36091,7 +37908,7 @@
       </c>
       <c r="J49" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A49, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>1028.3600000000001</v>
+        <v>1183.8900000000003</v>
       </c>
       <c r="K49" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A49, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -36107,7 +37924,7 @@
       </c>
       <c r="N49" s="63">
         <f t="shared" si="11"/>
-        <v>2054.73</v>
+        <v>2210.2600000000002</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -36152,7 +37969,7 @@
       </c>
       <c r="K50" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A50, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L50" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A50, 'Detailed Expenses'!$B:$B, L$35, 'Detailed Expenses'!$A:$A, L$34)</f>
@@ -36164,7 +37981,7 @@
       </c>
       <c r="N50" s="63">
         <f t="shared" si="11"/>
-        <v>1829.0800000000004</v>
+        <v>1929.0800000000004</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -36205,7 +38022,7 @@
       </c>
       <c r="J51" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A51, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>0</v>
+        <v>259.3</v>
       </c>
       <c r="K51" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A51, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -36221,7 +38038,7 @@
       </c>
       <c r="N51" s="63">
         <f t="shared" si="11"/>
-        <v>389.56000000000006</v>
+        <v>648.86000000000013</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -36242,7 +38059,7 @@
       </c>
       <c r="E52" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A52, 'Detailed Expenses'!$B:$B, E$35, 'Detailed Expenses'!$A:$A, E$34)</f>
-        <v>270.64999999999998</v>
+        <v>120.65</v>
       </c>
       <c r="F52" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A52, 'Detailed Expenses'!$B:$B, F$35, 'Detailed Expenses'!$A:$A, F$34)</f>
@@ -36262,11 +38079,11 @@
       </c>
       <c r="J52" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A52, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>0</v>
+        <v>161.18</v>
       </c>
       <c r="K52" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A52, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
-        <v>0</v>
+        <v>135.97</v>
       </c>
       <c r="L52" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A52, 'Detailed Expenses'!$B:$B, L$35, 'Detailed Expenses'!$A:$A, L$34)</f>
@@ -36278,7 +38095,7 @@
       </c>
       <c r="N52" s="63">
         <f t="shared" si="11"/>
-        <v>1746.9299999999998</v>
+        <v>1894.0800000000002</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -36319,7 +38136,7 @@
       </c>
       <c r="J53" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A53, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>147.77000000000001</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="K53" s="26">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A53, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -36335,7 +38152,7 @@
       </c>
       <c r="N53" s="63">
         <f t="shared" si="11"/>
-        <v>836.40999999999985</v>
+        <v>976.2399999999999</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -36376,7 +38193,7 @@
       </c>
       <c r="J54" s="105">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A54, 'Detailed Expenses'!$B:$B, J$35, 'Detailed Expenses'!$A:$A, J$34)</f>
-        <v>70</v>
+        <v>125.97999999999999</v>
       </c>
       <c r="K54" s="105">
         <f>SUMIFS('Detailed Expenses'!$E:$E, 'Detailed Expenses'!$F:$F, $A54, 'Detailed Expenses'!$B:$B, K$35, 'Detailed Expenses'!$A:$A, K$34)</f>
@@ -36392,7 +38209,7 @@
       </c>
       <c r="N54" s="66">
         <f t="shared" si="11"/>
-        <v>10268.189999999997</v>
+        <v>10324.169999999996</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -36413,7 +38230,7 @@
       </c>
       <c r="E55" s="31">
         <f t="shared" si="12"/>
-        <v>2228.92</v>
+        <v>2078.92</v>
       </c>
       <c r="F55" s="31">
         <f t="shared" si="12"/>
@@ -36433,11 +38250,11 @@
       </c>
       <c r="J55" s="31">
         <f t="shared" si="12"/>
-        <v>2171.9</v>
-      </c>
-      <c r="K55" s="31" t="str">
+        <v>4819.130000000001</v>
+      </c>
+      <c r="K55" s="31">
         <f t="shared" si="12"/>
-        <v/>
+        <v>276.77999999999997</v>
       </c>
       <c r="L55" s="31" t="str">
         <f t="shared" si="12"/>
@@ -36449,7 +38266,7 @@
       </c>
       <c r="N55" s="68">
         <f t="shared" si="11"/>
-        <v>48675.920000000006</v>
+        <v>51449.930000000008</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -36547,7 +38364,7 @@
       </c>
       <c r="J57" s="100">
         <f t="shared" si="14"/>
-        <v>895</v>
+        <v>1834.69</v>
       </c>
       <c r="K57" s="100">
         <f t="shared" si="14"/>
@@ -36563,7 +38380,7 @@
       </c>
       <c r="N57" s="101">
         <f t="shared" si="14"/>
-        <v>8367.32</v>
+        <v>9307.01</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -36584,7 +38401,7 @@
       </c>
       <c r="E58" s="113">
         <f t="shared" si="15"/>
-        <v>1294.8800000000001</v>
+        <v>1144.8800000000001</v>
       </c>
       <c r="F58" s="113">
         <f t="shared" si="15"/>
@@ -36604,11 +38421,11 @@
       </c>
       <c r="J58" s="113">
         <f t="shared" si="16"/>
-        <v>1276.9000000000001</v>
-      </c>
-      <c r="K58" s="113" t="e">
+        <v>2984.440000000001</v>
+      </c>
+      <c r="K58" s="113">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
+        <v>276.77999999999997</v>
       </c>
       <c r="L58" s="113" t="e">
         <f t="shared" si="16"/>
@@ -36620,12 +38437,12 @@
       </c>
       <c r="N58" s="63">
         <f>N55-(N57+N56)</f>
-        <v>14070.060000000005</v>
+        <v>15904.380000000005</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="115" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B59" s="69">
         <f>B55-B54</f>
@@ -36641,7 +38458,7 @@
       </c>
       <c r="E59" s="69">
         <f t="shared" si="17"/>
-        <v>2172.94</v>
+        <v>2022.94</v>
       </c>
       <c r="F59" s="69">
         <f t="shared" si="17"/>
@@ -36661,11 +38478,11 @@
       </c>
       <c r="J59" s="69">
         <f t="shared" si="17"/>
-        <v>2101.9</v>
-      </c>
-      <c r="K59" s="69" t="e">
+        <v>4693.1500000000015</v>
+      </c>
+      <c r="K59" s="69">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>276.77999999999997</v>
       </c>
       <c r="L59" s="69" t="e">
         <f t="shared" si="17"/>
@@ -36677,7 +38494,7 @@
       </c>
       <c r="N59" s="116">
         <f>N55-N54</f>
-        <v>38407.73000000001</v>
+        <v>41125.760000000009</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -36763,15 +38580,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="145" t="s">
         <v>813</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="141"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -37094,4 +38911,1031 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:F67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="127" customWidth="1"/>
+    <col min="4" max="4" width="69.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B5" s="123">
+        <v>43195</v>
+      </c>
+      <c r="C5" s="128">
+        <f>DAY(B5)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>929</v>
+      </c>
+      <c r="E5" s="125">
+        <v>111.89</v>
+      </c>
+      <c r="F5" s="126"/>
+    </row>
+    <row r="6" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B6" s="123">
+        <v>43196</v>
+      </c>
+      <c r="C6" s="128">
+        <f t="shared" ref="C6:C67" si="0">DAY(B6)</f>
+        <v>6</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E6" s="125">
+        <v>1.46</v>
+      </c>
+      <c r="F6" s="126"/>
+    </row>
+    <row r="7" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B7" s="123">
+        <v>43196</v>
+      </c>
+      <c r="C7" s="128">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>931</v>
+      </c>
+      <c r="E7" s="125">
+        <v>15</v>
+      </c>
+      <c r="F7" s="126"/>
+    </row>
+    <row r="8" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B8" s="123">
+        <v>43197</v>
+      </c>
+      <c r="C8" s="128">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>932</v>
+      </c>
+      <c r="E8" s="125">
+        <v>30.8</v>
+      </c>
+      <c r="F8" s="126"/>
+    </row>
+    <row r="9" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B9" s="123">
+        <v>43197</v>
+      </c>
+      <c r="C9" s="128">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>933</v>
+      </c>
+      <c r="E9" s="125">
+        <v>16.23</v>
+      </c>
+      <c r="F9" s="126"/>
+    </row>
+    <row r="10" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B10" s="123">
+        <v>43198</v>
+      </c>
+      <c r="C10" s="128">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>933</v>
+      </c>
+      <c r="E10" s="125">
+        <v>3.77</v>
+      </c>
+      <c r="F10" s="126"/>
+    </row>
+    <row r="11" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B11" s="123">
+        <v>43199</v>
+      </c>
+      <c r="C11" s="128">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>934</v>
+      </c>
+      <c r="E11" s="125">
+        <v>40.94</v>
+      </c>
+      <c r="F11" s="126"/>
+    </row>
+    <row r="12" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B12" s="123">
+        <v>43199</v>
+      </c>
+      <c r="C12" s="128">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E12" s="125">
+        <v>5.51</v>
+      </c>
+      <c r="F12" s="126"/>
+    </row>
+    <row r="13" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B13" s="123">
+        <v>43200</v>
+      </c>
+      <c r="C13" s="128">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>935</v>
+      </c>
+      <c r="E13" s="125">
+        <v>1.6</v>
+      </c>
+      <c r="F13" s="126"/>
+    </row>
+    <row r="14" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B14" s="123">
+        <v>43200</v>
+      </c>
+      <c r="C14" s="128">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>936</v>
+      </c>
+      <c r="E14" s="125">
+        <v>24.02</v>
+      </c>
+      <c r="F14" s="126"/>
+    </row>
+    <row r="15" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B15" s="123">
+        <v>43200</v>
+      </c>
+      <c r="C15" s="128">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="124" t="s">
+        <v>936</v>
+      </c>
+      <c r="E15" s="125">
+        <v>12.97</v>
+      </c>
+      <c r="F15" s="126"/>
+    </row>
+    <row r="16" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B16" s="123">
+        <v>43201</v>
+      </c>
+      <c r="C16" s="128">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E16" s="125">
+        <v>3.55</v>
+      </c>
+      <c r="F16" s="126"/>
+    </row>
+    <row r="17" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B17" s="123">
+        <v>43201</v>
+      </c>
+      <c r="C17" s="128">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="124" t="s">
+        <v>937</v>
+      </c>
+      <c r="E17" s="125">
+        <v>9.89</v>
+      </c>
+      <c r="F17" s="126"/>
+    </row>
+    <row r="18" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B18" s="123">
+        <v>43202</v>
+      </c>
+      <c r="C18" s="128">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E18" s="125">
+        <v>1.46</v>
+      </c>
+      <c r="F18" s="126"/>
+    </row>
+    <row r="19" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B19" s="123">
+        <v>43202</v>
+      </c>
+      <c r="C19" s="128">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="124" t="s">
+        <v>938</v>
+      </c>
+      <c r="E19" s="125">
+        <v>3.15</v>
+      </c>
+      <c r="F19" s="126"/>
+    </row>
+    <row r="20" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B20" s="123">
+        <v>43202</v>
+      </c>
+      <c r="C20" s="128">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E20" s="125">
+        <v>10.7</v>
+      </c>
+      <c r="F20" s="126"/>
+    </row>
+    <row r="21" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B21" s="123">
+        <v>43203</v>
+      </c>
+      <c r="C21" s="128">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D21" s="124" t="s">
+        <v>939</v>
+      </c>
+      <c r="E21" s="125">
+        <v>18.37</v>
+      </c>
+      <c r="F21" s="126"/>
+    </row>
+    <row r="22" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B22" s="123">
+        <v>43205</v>
+      </c>
+      <c r="C22" s="128">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D22" s="124" t="s">
+        <v>929</v>
+      </c>
+      <c r="E22" s="125">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="F22" s="126"/>
+    </row>
+    <row r="23" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B23" s="123">
+        <v>43205</v>
+      </c>
+      <c r="C23" s="128">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D23" s="124" t="s">
+        <v>940</v>
+      </c>
+      <c r="E23" s="125">
+        <v>10.95</v>
+      </c>
+      <c r="F23" s="126"/>
+    </row>
+    <row r="24" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B24" s="123">
+        <v>43205</v>
+      </c>
+      <c r="C24" s="128">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D24" s="124" t="s">
+        <v>941</v>
+      </c>
+      <c r="E24" s="125">
+        <v>3</v>
+      </c>
+      <c r="F24" s="126"/>
+    </row>
+    <row r="25" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B25" s="123">
+        <v>43205</v>
+      </c>
+      <c r="C25" s="128">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D25" s="124" t="s">
+        <v>942</v>
+      </c>
+      <c r="E25" s="125">
+        <v>24.01</v>
+      </c>
+      <c r="F25" s="126"/>
+    </row>
+    <row r="26" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B26" s="123">
+        <v>43205</v>
+      </c>
+      <c r="C26" s="128">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D26" s="124" t="s">
+        <v>943</v>
+      </c>
+      <c r="E26" s="125">
+        <v>14.15</v>
+      </c>
+      <c r="F26" s="126"/>
+    </row>
+    <row r="27" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B27" s="123">
+        <v>43206</v>
+      </c>
+      <c r="C27" s="128">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D27" s="124" t="s">
+        <v>938</v>
+      </c>
+      <c r="E27" s="125">
+        <v>11.29</v>
+      </c>
+      <c r="F27" s="126"/>
+    </row>
+    <row r="28" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B28" s="123">
+        <v>43206</v>
+      </c>
+      <c r="C28" s="128">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D28" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E28" s="125">
+        <v>5.63</v>
+      </c>
+      <c r="F28" s="126"/>
+    </row>
+    <row r="29" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B29" s="123">
+        <v>43207</v>
+      </c>
+      <c r="C29" s="128">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D29" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E29" s="125">
+        <v>7.09</v>
+      </c>
+      <c r="F29" s="126"/>
+    </row>
+    <row r="30" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B30" s="123">
+        <v>43207</v>
+      </c>
+      <c r="C30" s="128">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D30" s="124" t="s">
+        <v>944</v>
+      </c>
+      <c r="E30" s="125">
+        <v>30.9</v>
+      </c>
+      <c r="F30" s="126"/>
+    </row>
+    <row r="31" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B31" s="123">
+        <v>43207</v>
+      </c>
+      <c r="C31" s="128">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D31" s="124" t="s">
+        <v>945</v>
+      </c>
+      <c r="E31" s="125">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F31" s="126"/>
+    </row>
+    <row r="32" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B32" s="123">
+        <v>43208</v>
+      </c>
+      <c r="C32" s="128">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D32" s="124" t="s">
+        <v>935</v>
+      </c>
+      <c r="E32" s="125">
+        <v>8.1</v>
+      </c>
+      <c r="F32" s="126"/>
+    </row>
+    <row r="33" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B33" s="123">
+        <v>43208</v>
+      </c>
+      <c r="C33" s="128">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D33" s="124" t="s">
+        <v>936</v>
+      </c>
+      <c r="E33" s="125">
+        <v>15.22</v>
+      </c>
+      <c r="F33" s="126"/>
+    </row>
+    <row r="34" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B34" s="123">
+        <v>43208</v>
+      </c>
+      <c r="C34" s="128">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D34" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="E34" s="125">
+        <v>5.88</v>
+      </c>
+      <c r="F34" s="126"/>
+    </row>
+    <row r="35" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B35" s="123">
+        <v>43210</v>
+      </c>
+      <c r="C35" s="128">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D35" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E35" s="125">
+        <v>5.51</v>
+      </c>
+      <c r="F35" s="126"/>
+    </row>
+    <row r="36" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B36" s="123">
+        <v>43210</v>
+      </c>
+      <c r="C36" s="128">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D36" s="124" t="s">
+        <v>935</v>
+      </c>
+      <c r="E36" s="125">
+        <v>6.7</v>
+      </c>
+      <c r="F36" s="126"/>
+    </row>
+    <row r="37" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B37" s="123">
+        <v>43210</v>
+      </c>
+      <c r="C37" s="128">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D37" s="124" t="s">
+        <v>947</v>
+      </c>
+      <c r="E37" s="125">
+        <v>124.08</v>
+      </c>
+      <c r="F37" s="126"/>
+    </row>
+    <row r="38" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B38" s="123">
+        <v>43211</v>
+      </c>
+      <c r="C38" s="128">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D38" s="124" t="s">
+        <v>945</v>
+      </c>
+      <c r="E38" s="125">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F38" s="126"/>
+    </row>
+    <row r="39" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B39" s="123">
+        <v>43211</v>
+      </c>
+      <c r="C39" s="128">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D39" s="124" t="s">
+        <v>949</v>
+      </c>
+      <c r="E39" s="125">
+        <v>163.85</v>
+      </c>
+      <c r="F39" s="126"/>
+    </row>
+    <row r="40" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B40" s="123">
+        <v>43211</v>
+      </c>
+      <c r="C40" s="128">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D40" s="124" t="s">
+        <v>944</v>
+      </c>
+      <c r="E40" s="125">
+        <v>14.95</v>
+      </c>
+      <c r="F40" s="126"/>
+    </row>
+    <row r="41" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B41" s="123">
+        <v>43212</v>
+      </c>
+      <c r="C41" s="128">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D41" s="124" t="s">
+        <v>950</v>
+      </c>
+      <c r="E41" s="125">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F41" s="126"/>
+    </row>
+    <row r="42" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B42" s="123">
+        <v>43213</v>
+      </c>
+      <c r="C42" s="128">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D42" s="124" t="s">
+        <v>951</v>
+      </c>
+      <c r="E42" s="125">
+        <v>89.27</v>
+      </c>
+      <c r="F42" s="126"/>
+    </row>
+    <row r="43" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B43" s="123">
+        <v>43213</v>
+      </c>
+      <c r="C43" s="128">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D43" s="124" t="s">
+        <v>935</v>
+      </c>
+      <c r="E43" s="125">
+        <v>6.7</v>
+      </c>
+      <c r="F43" s="126"/>
+    </row>
+    <row r="44" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B44" s="123">
+        <v>43214</v>
+      </c>
+      <c r="C44" s="128">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D44" s="124" t="s">
+        <v>952</v>
+      </c>
+      <c r="E44" s="125">
+        <v>4.99</v>
+      </c>
+      <c r="F44" s="126"/>
+    </row>
+    <row r="45" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B45" s="123">
+        <v>43214</v>
+      </c>
+      <c r="C45" s="128">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D45" s="124" t="s">
+        <v>953</v>
+      </c>
+      <c r="E45" s="125">
+        <v>30</v>
+      </c>
+      <c r="F45" s="126"/>
+    </row>
+    <row r="46" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B46" s="123">
+        <v>43214</v>
+      </c>
+      <c r="C46" s="128">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D46" s="124" t="s">
+        <v>954</v>
+      </c>
+      <c r="E46" s="125">
+        <v>1.7</v>
+      </c>
+      <c r="F46" s="126"/>
+    </row>
+    <row r="47" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B47" s="123">
+        <v>43215</v>
+      </c>
+      <c r="C47" s="128">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D47" s="124" t="s">
+        <v>955</v>
+      </c>
+      <c r="E47" s="125">
+        <v>7.11</v>
+      </c>
+      <c r="F47" s="126"/>
+    </row>
+    <row r="48" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B48" s="123">
+        <v>43215</v>
+      </c>
+      <c r="C48" s="128">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D48" s="124" t="s">
+        <v>956</v>
+      </c>
+      <c r="E48" s="125">
+        <v>33.54</v>
+      </c>
+      <c r="F48" s="126"/>
+    </row>
+    <row r="49" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B49" s="123">
+        <v>43217</v>
+      </c>
+      <c r="C49" s="128">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D49" s="124" t="s">
+        <v>957</v>
+      </c>
+      <c r="E49" s="125">
+        <v>79.09</v>
+      </c>
+      <c r="F49" s="126"/>
+    </row>
+    <row r="50" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B50" s="123">
+        <v>43217</v>
+      </c>
+      <c r="C50" s="128">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D50" s="124" t="s">
+        <v>958</v>
+      </c>
+      <c r="E50" s="125">
+        <v>9.44</v>
+      </c>
+      <c r="F50" s="126"/>
+    </row>
+    <row r="51" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B51" s="123">
+        <v>43217</v>
+      </c>
+      <c r="C51" s="128">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D51" s="124" t="s">
+        <v>959</v>
+      </c>
+      <c r="E51" s="125">
+        <v>14.5</v>
+      </c>
+      <c r="F51" s="126"/>
+    </row>
+    <row r="52" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B52" s="123">
+        <v>43217</v>
+      </c>
+      <c r="C52" s="128">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D52" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E52" s="125">
+        <v>3.66</v>
+      </c>
+      <c r="F52" s="126"/>
+    </row>
+    <row r="53" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B53" s="123">
+        <v>43218</v>
+      </c>
+      <c r="C53" s="128">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D53" s="124" t="s">
+        <v>960</v>
+      </c>
+      <c r="E53" s="125">
+        <v>21.47</v>
+      </c>
+      <c r="F53" s="126"/>
+    </row>
+    <row r="54" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B54" s="123">
+        <v>43218</v>
+      </c>
+      <c r="C54" s="128">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D54" s="124" t="s">
+        <v>961</v>
+      </c>
+      <c r="E54" s="125">
+        <v>23.97</v>
+      </c>
+      <c r="F54" s="126"/>
+    </row>
+    <row r="55" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B55" s="123">
+        <v>43218</v>
+      </c>
+      <c r="C55" s="128">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D55" s="124" t="s">
+        <v>962</v>
+      </c>
+      <c r="E55" s="125">
+        <v>11.29</v>
+      </c>
+      <c r="F55" s="126"/>
+    </row>
+    <row r="56" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B56" s="123">
+        <v>43218</v>
+      </c>
+      <c r="C56" s="128">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D56" s="124" t="s">
+        <v>963</v>
+      </c>
+      <c r="E56" s="125">
+        <v>47.46</v>
+      </c>
+      <c r="F56" s="126"/>
+    </row>
+    <row r="57" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B57" s="123">
+        <v>43219</v>
+      </c>
+      <c r="C57" s="128">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D57" s="124" t="s">
+        <v>964</v>
+      </c>
+      <c r="E57" s="125">
+        <v>38.42</v>
+      </c>
+      <c r="F57" s="126"/>
+    </row>
+    <row r="58" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B58" s="123">
+        <v>43219</v>
+      </c>
+      <c r="C58" s="128">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D58" s="124" t="s">
+        <v>965</v>
+      </c>
+      <c r="E58" s="125">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F58" s="126"/>
+    </row>
+    <row r="59" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B59" s="123">
+        <v>43219</v>
+      </c>
+      <c r="C59" s="128">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D59" s="124" t="s">
+        <v>966</v>
+      </c>
+      <c r="E59" s="125">
+        <v>10.96</v>
+      </c>
+      <c r="F59" s="126"/>
+    </row>
+    <row r="60" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B60" s="123">
+        <v>43220</v>
+      </c>
+      <c r="C60" s="128">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D60" s="124" t="s">
+        <v>967</v>
+      </c>
+      <c r="E60" s="125">
+        <v>9.07</v>
+      </c>
+      <c r="F60" s="126"/>
+    </row>
+    <row r="61" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B61" s="123">
+        <v>43221</v>
+      </c>
+      <c r="C61" s="128">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="124" t="s">
+        <v>948</v>
+      </c>
+      <c r="E61" s="125">
+        <v>90.4</v>
+      </c>
+      <c r="F61" s="126"/>
+    </row>
+    <row r="62" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B62" s="123">
+        <v>43221</v>
+      </c>
+      <c r="C62" s="128">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="124" t="s">
+        <v>936</v>
+      </c>
+      <c r="E62" s="125">
+        <v>25.38</v>
+      </c>
+      <c r="F62" s="126"/>
+    </row>
+    <row r="63" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B63" s="123">
+        <v>43221</v>
+      </c>
+      <c r="C63" s="128">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E63" s="125">
+        <v>1.56</v>
+      </c>
+      <c r="F63" s="126"/>
+    </row>
+    <row r="64" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B64" s="123">
+        <v>43222</v>
+      </c>
+      <c r="C64" s="128">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D64" s="124" t="s">
+        <v>968</v>
+      </c>
+      <c r="E64" s="125">
+        <v>45.57</v>
+      </c>
+      <c r="F64" s="126"/>
+    </row>
+    <row r="65" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B65" s="123">
+        <v>43222</v>
+      </c>
+      <c r="C65" s="128">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="124" t="s">
+        <v>936</v>
+      </c>
+      <c r="E65" s="125">
+        <v>12.41</v>
+      </c>
+      <c r="F65" s="126"/>
+    </row>
+    <row r="66" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B66" s="123">
+        <v>43222</v>
+      </c>
+      <c r="C66" s="128">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="124" t="s">
+        <v>930</v>
+      </c>
+      <c r="E66" s="125">
+        <v>1.46</v>
+      </c>
+      <c r="F66" s="126"/>
+    </row>
+    <row r="67" spans="2:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="B67" s="123">
+        <v>43222</v>
+      </c>
+      <c r="C67" s="128">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D67" s="124" t="s">
+        <v>969</v>
+      </c>
+      <c r="E67" s="125">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>